--- a/artfynd/A 38323-2019.xlsx
+++ b/artfynd/A 38323-2019.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>80984727</v>
+        <v>80984653</v>
       </c>
       <c r="B2" t="n">
-        <v>89412</v>
+        <v>56395</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>5442</v>
+        <v>100109</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>802488.0892767747</v>
+        <v>802412.2482731647</v>
       </c>
       <c r="R2" t="n">
-        <v>7419795.075097569</v>
+        <v>7420062.223471683</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -750,7 +750,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2019-06-25</t>
+          <t>2019-06-26</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2019-06-25</t>
+          <t>2019-06-26</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -792,7 +792,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>80984668</v>
+        <v>80984665</v>
       </c>
       <c r="B3" t="n">
         <v>78503</v>
@@ -832,10 +832,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>802997.0783882558</v>
+        <v>802408.9692803487</v>
       </c>
       <c r="R3" t="n">
-        <v>7419415.035970301</v>
+        <v>7420170.958352051</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -904,10 +904,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>80984653</v>
+        <v>80984695</v>
       </c>
       <c r="B4" t="n">
-        <v>56395</v>
+        <v>77506</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -920,21 +920,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -1016,10 +1016,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>80984665</v>
+        <v>80984688</v>
       </c>
       <c r="B5" t="n">
-        <v>78503</v>
+        <v>96254</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1032,23 +1032,19 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6456</v>
+        <v>223597</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Jungfru marie nycklar</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>(Dicks.) Nyl.</t>
-        </is>
-      </c>
+          <t>Dactylorhiza maculata subsp. maculata</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
@@ -1056,10 +1052,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>802408.9692803487</v>
+        <v>802414.0848113028</v>
       </c>
       <c r="R5" t="n">
-        <v>7420170.958352051</v>
+        <v>7420060.03789904</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1128,10 +1124,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>80984695</v>
+        <v>80984727</v>
       </c>
       <c r="B6" t="n">
-        <v>77506</v>
+        <v>89412</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1144,21 +1140,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6425</v>
+        <v>5442</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1168,10 +1164,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>802412.2482731647</v>
+        <v>802488.0892767747</v>
       </c>
       <c r="R6" t="n">
-        <v>7420062.223471683</v>
+        <v>7419795.075097569</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1198,7 +1194,7 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>2019-06-26</t>
+          <t>2019-06-25</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1208,7 +1204,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2019-06-26</t>
+          <t>2019-06-25</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
@@ -1352,10 +1348,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>80984688</v>
+        <v>80984668</v>
       </c>
       <c r="B8" t="n">
-        <v>96254</v>
+        <v>78503</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1368,19 +1364,23 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>223597</v>
+        <v>6456</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Jungfru marie nycklar</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata subsp. maculata</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
+          <t>Leptogium saturninum</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>(Dicks.) Nyl.</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
@@ -1388,10 +1388,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>802414.0848113028</v>
+        <v>802997.0783882558</v>
       </c>
       <c r="R8" t="n">
-        <v>7420060.03789904</v>
+        <v>7419415.035970301</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
